--- a/data/excel/JOLO_SBT_Flight_Hotel_Car.xlsx
+++ b/data/excel/JOLO_SBT_Flight_Hotel_Car.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E414FA2-59EC-4A98-BCEA-9D316D7A1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight-XchangeV12" sheetId="7" r:id="rId1"/>
@@ -1149,7 +1150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1545,7 +1546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2899,84 +2900,84 @@
     </row>
   </sheetData>
   <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V6 AJ2:AL6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V6 AJ2:AL6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:Z6 AF2:AF6 AI2:AI6 AM2:AM6 BH2:BH6 AS2:AS6 AO2:AQ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:Z6 AF2:AF6 AI2:AI6 AM2:AM6 BH2:BH6 AS2:AS6 AO2:AQ6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6 AN2:AN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6 AN2:AN6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR6" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2:AT6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2:AT6" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU6" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM6" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN6" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP6" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>"Staging,Xchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,//xchangev12/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J3" r:id="rId3" display="Password@12345"/>
-    <hyperlink ref="K3" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J4" r:id="rId5" display="Password@12345"/>
-    <hyperlink ref="K4" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J5" r:id="rId7" display="Password@12345"/>
-    <hyperlink ref="K5" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J6" r:id="rId9" display="Password@12345"/>
-    <hyperlink ref="K6" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" display="Password@12345" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" display="Password@12345" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" display="Password@12345" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" display="Password@12345" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -2984,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,92 +3524,92 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,piyush.chauhan@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar,Laxmi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN,3980SATX2V2GNJF,Quad@720,Laxmi@10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W2 AK2:AM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W2 AK2:AM2" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA2 AG2 AJ2 AN2 BL2 AT2 AP2:AR2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA2 AG2 AJ2 AN2 BL2 AT2 AP2:AR2" xr:uid="{00000000-0002-0000-0900-000005000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0900-000006000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AO2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AO2" xr:uid="{00000000-0002-0000-0900-000007000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0900-000008000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0900-000009000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0900-00000A000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{00000000-0002-0000-0900-00000B000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2" xr:uid="{00000000-0002-0000-0900-00000C000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{00000000-0002-0000-0900-00000D000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{00000000-0002-0000-0900-00000E000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2" xr:uid="{00000000-0002-0000-0900-00000F000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{00000000-0002-0000-0900-000010000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2" xr:uid="{00000000-0002-0000-0900-000011000000}">
       <formula1>"Mastercard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{00000000-0002-0000-0900-000012000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 E2" xr:uid="{00000000-0002-0000-0900-000013000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-0900-000014000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{00000000-0002-0000-0900-000015000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{00000000-0002-0000-0900-000016000000}">
       <formula1>"Jetstar Airways,Regional Express,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{00000000-0002-0000-0900-000017000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS,BUSINESS SAVER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0900-000018000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="Admin@123"/>
-    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J2" r:id="rId1" display="Admin@123" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -4376,92 +4377,92 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX3" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV3" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Jetstar Airways,Regional Express,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO3" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 E2:E3" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0A00-000006000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3" xr:uid="{00000000-0002-0000-0A00-000007000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT3" xr:uid="{00000000-0002-0000-0A00-000008000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3" xr:uid="{00000000-0002-0000-0A00-000009000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS3" xr:uid="{00000000-0002-0000-0A00-00000A000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3" xr:uid="{00000000-0002-0000-0A00-00000B000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR3" xr:uid="{00000000-0002-0000-0A00-00000C000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3" xr:uid="{00000000-0002-0000-0A00-00000D000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{00000000-0002-0000-0A00-00000E000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0A00-00000F000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0A00-000010000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{00000000-0002-0000-0A00-000011000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AO2:AO3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AO2:AO3" xr:uid="{00000000-0002-0000-0A00-000012000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0A00-000013000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA3 AG2:AG3 AJ2:AJ3 AN2:AN3 BL2:BL3 AT2:AT3 AP2:AR3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA3 AG2:AG3 AJ2:AJ3 AN2:AN3 BL2:BL3 AT2:AT3 AP2:AR3" xr:uid="{00000000-0002-0000-0A00-000014000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W3 AK2:AM3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W3 AK2:AM3" xr:uid="{00000000-0002-0000-0A00-000015000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{00000000-0002-0000-0A00-000016000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{00000000-0002-0000-0A00-000017000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0A00-000018000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K3" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K3" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BT17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8251,101 +8252,101 @@
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL17" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M17" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17 E2:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17 E2:E17" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW17" xr:uid="{00000000-0002-0000-0B00-000005000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2:BQ17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2:BQ17" xr:uid="{00000000-0002-0000-0B00-000006000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR17" xr:uid="{00000000-0002-0000-0B00-000007000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP17" xr:uid="{00000000-0002-0000-0B00-000008000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB17" xr:uid="{00000000-0002-0000-0B00-000009000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO17" xr:uid="{00000000-0002-0000-0B00-00000A000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV17" xr:uid="{00000000-0002-0000-0B00-00000B000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU17" xr:uid="{00000000-0002-0000-0B00-00000C000000}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS17" xr:uid="{00000000-0002-0000-0B00-00000D000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{00000000-0002-0000-0B00-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17" xr:uid="{00000000-0002-0000-0B00-00000F000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17" xr:uid="{00000000-0002-0000-0B00-000010000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X17 AO2:AO17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X17 AO2:AO17" xr:uid="{00000000-0002-0000-0B00-000011000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17" xr:uid="{00000000-0002-0000-0B00-000012000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA17 AG2:AG17 AJ2:AJ17 AN2:AN17 BI2:BI17 AT2:AT17 AP2:AR17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA17 AG2:AG17 AJ2:AJ17 AN2:AN17 BI2:BI17 AT2:AT17 AP2:AR17" xr:uid="{00000000-0002-0000-0B00-000013000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W17 AK2:AM17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W17 AK2:AM17" xr:uid="{00000000-0002-0000-0B00-000014000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{00000000-0002-0000-0B00-000015000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17" xr:uid="{00000000-0002-0000-0B00-000016000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17" xr:uid="{00000000-0002-0000-0B00-000017000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K6:K14" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K8" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K12" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K16" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K7" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K9" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K11" r:id="rId11" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K13" r:id="rId12" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K15" r:id="rId13" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K17" r:id="rId14" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="K3" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="K6:K14" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="K8" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="K12" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="K16" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
+    <hyperlink ref="K7" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
+    <hyperlink ref="K9" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="K11" r:id="rId11" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
+    <hyperlink ref="K15" r:id="rId13" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
+    <hyperlink ref="K17" r:id="rId14" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BT13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11263,97 +11264,97 @@
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL13" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 E2:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 E2:E13" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13" xr:uid="{00000000-0002-0000-0C00-000003000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{00000000-0002-0000-0C00-000004000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW13" xr:uid="{00000000-0002-0000-0C00-000005000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2:BQ13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2:BQ13" xr:uid="{00000000-0002-0000-0C00-000006000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR13" xr:uid="{00000000-0002-0000-0C00-000007000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP13" xr:uid="{00000000-0002-0000-0C00-000008000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB13" xr:uid="{00000000-0002-0000-0C00-000009000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO13" xr:uid="{00000000-0002-0000-0C00-00000A000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV13" xr:uid="{00000000-0002-0000-0C00-00000B000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU13" xr:uid="{00000000-0002-0000-0C00-00000C000000}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS13" xr:uid="{00000000-0002-0000-0C00-00000D000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-0C00-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{00000000-0002-0000-0C00-00000F000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13" xr:uid="{00000000-0002-0000-0C00-000010000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X13 AO2:AO13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X13 AO2:AO13" xr:uid="{00000000-0002-0000-0C00-000011000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N13" xr:uid="{00000000-0002-0000-0C00-000012000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA13 AG2:AG13 AJ2:AJ13 AN2:AN13 BI2:BI13 AT2:AT13 AP2:AR13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA13 AG2:AG13 AJ2:AJ13 AN2:AN13 BI2:BI13 AT2:AT13 AP2:AR13" xr:uid="{00000000-0002-0000-0C00-000013000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W13 AK2:AM13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W13 AK2:AM13" xr:uid="{00000000-0002-0000-0C00-000014000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-0C00-000015000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13" xr:uid="{00000000-0002-0000-0C00-000016000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13" xr:uid="{00000000-0002-0000-0C00-000017000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K8" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K7" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K9" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K11" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K13" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="K8" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="K3" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="K5" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="K7" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="K11" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
+    <hyperlink ref="K13" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BR25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16736,104 +16737,104 @@
     </row>
   </sheetData>
   <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY25" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ25" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM25" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK25" xr:uid="{00000000-0002-0000-0D00-000003000000}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25" xr:uid="{00000000-0002-0000-0D00-000004000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E25 C2:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E25 C2:C25" xr:uid="{00000000-0002-0000-0D00-000005000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K25" xr:uid="{00000000-0002-0000-0D00-000006000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J25" xr:uid="{00000000-0002-0000-0D00-000007000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO25" xr:uid="{00000000-0002-0000-0D00-000008000000}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO25" xr:uid="{00000000-0002-0000-0D00-000009000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP25" xr:uid="{00000000-0002-0000-0D00-00000A000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM25" xr:uid="{00000000-0002-0000-0D00-00000B000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA25 AL2:AL25 AI2:AJ25 AA2:AA25 AD2:AD25 X2:X25 V2:V25 BG2:BG25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA25 AL2:AL25 AI2:AJ25 AA2:AA25 AD2:AD25 X2:X25 V2:V25 BG2:BG25" xr:uid="{00000000-0002-0000-0D00-00000C000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L25 W2:W25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L25 W2:W25" xr:uid="{00000000-0002-0000-0D00-00000D000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{00000000-0002-0000-0D00-00000E000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25" xr:uid="{00000000-0002-0000-0D00-00000F000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP25" xr:uid="{00000000-0002-0000-0D00-000010000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN25" xr:uid="{00000000-0002-0000-0D00-000011000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25" xr:uid="{00000000-0002-0000-0D00-000012000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25" xr:uid="{00000000-0002-0000-0D00-000013000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I25" xr:uid="{00000000-0002-0000-0D00-000014000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M25" xr:uid="{00000000-0002-0000-0D00-000015000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ25" xr:uid="{00000000-0002-0000-0D00-000016000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K6" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K7" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K11" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K13" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K8" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K9" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K14:K22" r:id="rId11" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K15" r:id="rId12" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K18" r:id="rId13" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K24" r:id="rId14" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K17" r:id="rId15" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K19" r:id="rId16" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K23" r:id="rId17" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K25" r:id="rId18" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K20" r:id="rId19" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K21" r:id="rId20" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="K5" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
+    <hyperlink ref="K11" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
+    <hyperlink ref="K13" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
+    <hyperlink ref="K8" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
+    <hyperlink ref="K9" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
+    <hyperlink ref="K14:K22" r:id="rId11" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
+    <hyperlink ref="K15" r:id="rId12" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
+    <hyperlink ref="K18" r:id="rId13" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
+    <hyperlink ref="K24" r:id="rId14" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
+    <hyperlink ref="K17" r:id="rId15" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
+    <hyperlink ref="K19" r:id="rId16" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-00000F000000}"/>
+    <hyperlink ref="K23" r:id="rId17" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000010000000}"/>
+    <hyperlink ref="K25" r:id="rId18" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000012000000}"/>
+    <hyperlink ref="K21" r:id="rId20" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0D00-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19672,94 +19673,94 @@
     </row>
   </sheetData>
   <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ13" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13" xr:uid="{00000000-0002-0000-0E00-000003000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-0E00-000004000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN13" xr:uid="{00000000-0002-0000-0E00-000005000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP13" xr:uid="{00000000-0002-0000-0E00-000006000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-0E00-000007000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{00000000-0002-0000-0E00-000008000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13 W2:W13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13 W2:W13" xr:uid="{00000000-0002-0000-0E00-000009000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA13 AL2:AL13 AI2:AJ13 AA2:AA13 AD2:AD13 X2:X13 V2:V13 BG2:BG13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA13 AL2:AL13 AI2:AJ13 AA2:AA13 AD2:AD13 X2:X13 V2:V13 BG2:BG13" xr:uid="{00000000-0002-0000-0E00-00000A000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM13" xr:uid="{00000000-0002-0000-0E00-00000B000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP13" xr:uid="{00000000-0002-0000-0E00-00000C000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO13" xr:uid="{00000000-0002-0000-0E00-00000D000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO13" xr:uid="{00000000-0002-0000-0E00-00000E000000}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{00000000-0002-0000-0E00-00000F000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13" xr:uid="{00000000-0002-0000-0E00-000010000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13 C2:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13 C2:C13" xr:uid="{00000000-0002-0000-0E00-000011000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R13" xr:uid="{00000000-0002-0000-0E00-000012000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK13" xr:uid="{00000000-0002-0000-0E00-000013000000}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM13" xr:uid="{00000000-0002-0000-0E00-000014000000}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ13" xr:uid="{00000000-0002-0000-0E00-000015000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY13" xr:uid="{00000000-0002-0000-0E00-000016000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K6" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K7" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K11" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K13" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K8" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K9" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="K5" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="K11" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
+    <hyperlink ref="K13" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
+    <hyperlink ref="K8" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
+    <hyperlink ref="K9" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:BR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21113,95 +21114,95 @@
     </row>
   </sheetData>
   <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{00000000-0002-0000-0F00-000002000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0F00-000003000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN6" xr:uid="{00000000-0002-0000-0F00-000004000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP6" xr:uid="{00000000-0002-0000-0F00-000005000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0F00-000006000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0F00-000007000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 W2:W6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 W2:W6" xr:uid="{00000000-0002-0000-0F00-000008000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6 AL2:AL6 AI2:AJ6 AA2:AA6 AD2:AD6 X2:X6 V2:V6 BG2:BG6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6 AL2:AL6 AI2:AJ6 AA2:AA6 AD2:AD6 X2:X6 V2:V6 BG2:BG6" xr:uid="{00000000-0002-0000-0F00-000009000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM6" xr:uid="{00000000-0002-0000-0F00-00000A000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP6" xr:uid="{00000000-0002-0000-0F00-00000B000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6" xr:uid="{00000000-0002-0000-0F00-00000C000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6" xr:uid="{00000000-0002-0000-0F00-00000D000000}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 C2:C6" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK6" xr:uid="{00000000-0002-0000-0F00-000010000000}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM6" xr:uid="{00000000-0002-0000-0F00-000011000000}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ6" xr:uid="{00000000-0002-0000-0F00-000012000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY6" xr:uid="{00000000-0002-0000-0F00-000013000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{00000000-0002-0000-0F00-000014000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN,3980SATX2V2GNJF,Quad@720,Laxmi@10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{00000000-0002-0000-0F00-000015000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar,Laxmi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-0F00-000016000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,piyush.chauhan@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K3" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J2" r:id="rId2" display="Admin@123"/>
-    <hyperlink ref="K2" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J3" r:id="rId4" display="Admin@123"/>
-    <hyperlink ref="K3" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J4" r:id="rId6" display="Admin@123"/>
-    <hyperlink ref="K4" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J5" r:id="rId8" display="Admin@123"/>
-    <hyperlink ref="K5" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J6" r:id="rId10" display="Admin@123"/>
-    <hyperlink ref="K6" r:id="rId11" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K3" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" display="Admin@123" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" display="Admin@123" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="K3" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="J4" r:id="rId6" display="Admin@123" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="K4" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="J5" r:id="rId8" display="Admin@123" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="K5" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="J6" r:id="rId10" display="Admin@123" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="K6" r:id="rId11" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BR2"/>
   <sheetViews>
     <sheetView topLeftCell="BD1" workbookViewId="0">
@@ -21707,86 +21708,86 @@
     </row>
   </sheetData>
   <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,piyush.chauhan@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-1000-000001000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar,Laxmi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-1000-000002000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN,3980SATX2V2GNJF,Quad@720,Laxmi@10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AY2" xr:uid="{00000000-0002-0000-1000-000003000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{00000000-0002-0000-1000-000004000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{00000000-0002-0000-1000-000005000000}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2" xr:uid="{00000000-0002-0000-1000-000006000000}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{00000000-0002-0000-1000-000007000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2" xr:uid="{00000000-0002-0000-1000-000008000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2" xr:uid="{00000000-0002-0000-1000-000009000000}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{00000000-0002-0000-1000-00000A000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2" xr:uid="{00000000-0002-0000-1000-00000B000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{00000000-0002-0000-1000-00000C000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2 AL2 AI2:AJ2 AA2 AD2 X2 V2 BG2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2 AL2 AI2:AJ2 AA2 AD2 X2 V2 BG2" xr:uid="{00000000-0002-0000-1000-00000D000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 W2" xr:uid="{00000000-0002-0000-1000-00000E000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-1000-00000F000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-1000-000010000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2" xr:uid="{00000000-0002-0000-1000-000011000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{00000000-0002-0000-1000-000012000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-1000-000013000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-1000-000014000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-1000-000015000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{00000000-0002-0000-1000-000016000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J2" r:id="rId2" display="Admin@123"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" display="Admin@123" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:CD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23358,82 +23359,82 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-1100-000001000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 C2:C6" xr:uid="{00000000-0002-0000-1100-000002000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ6" xr:uid="{00000000-0002-0000-1100-000003000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6" xr:uid="{00000000-0002-0000-1100-000004000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-1100-000005000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-1100-000006000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 L2:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC6 L2:L6" xr:uid="{00000000-0002-0000-1100-000007000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD6 AZ2:BA6 AQ2:AQ6 AW2:AW6 AU2:AU6 AM2:AM6 AI2:AI6 AK2:AK6 AG2:AG6 AD2:AD6 AB2:AB6 AO2:AO6 Y2:Y6 BG2:BH6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD6 AZ2:BA6 AQ2:AQ6 AW2:AW6 AU2:AU6 AM2:AM6 AI2:AI6 AK2:AK6 AG2:AG6 AD2:AD6 AB2:AB6 AO2:AO6 Y2:Y6 BG2:BH6" xr:uid="{00000000-0002-0000-1100-000008000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB6" xr:uid="{00000000-0002-0000-1100-000009000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE6" xr:uid="{00000000-0002-0000-1100-00000A000000}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6" xr:uid="{00000000-0002-0000-1100-00000B000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2:CB6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2:CB6" xr:uid="{00000000-0002-0000-1100-00000C000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA6" xr:uid="{00000000-0002-0000-1100-00000D000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{00000000-0002-0000-1100-00000E000000}">
       <formula1>"Car,Car+Flight,Car+Hotel,Car+Flight+Hotel,Car+Hotel+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{00000000-0002-0000-1100-00000F000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV6" xr:uid="{00000000-0002-0000-1100-000010000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-1100-000011000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,piyush.chauhan@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{00000000-0002-0000-1100-000012000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar,Laxmi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{00000000-0002-0000-1100-000013000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN,3980SATX2V2GNJF,Quad@720,Laxmi@10"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J2" r:id="rId2" display="Admin@123"/>
-    <hyperlink ref="J3" r:id="rId3" display="Admin@123"/>
-    <hyperlink ref="J4" r:id="rId4" display="Admin@123"/>
-    <hyperlink ref="J5" r:id="rId5" display="Admin@123"/>
-    <hyperlink ref="J6" r:id="rId6" display="Admin@123"/>
-    <hyperlink ref="K3:K6" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" display="Admin@123" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" display="Admin@123" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="J4" r:id="rId4" display="Admin@123" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
+    <hyperlink ref="J5" r:id="rId5" display="Admin@123" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="J6" r:id="rId6" display="Admin@123" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
+    <hyperlink ref="K3:K6" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" workbookViewId="0">
@@ -24021,77 +24022,77 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN,3980SATX2V2GNJF,Quad@720,Laxmi@10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-1200-000001000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar,Laxmi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{00000000-0002-0000-1200-000002000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,piyush.chauhan@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{00000000-0002-0000-1200-000003000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-1200-000004000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{00000000-0002-0000-1200-000005000000}">
       <formula1>"Car,Car+Flight,Car+Hotel,Car+Flight+Hotel,Car+Hotel+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{00000000-0002-0000-1200-000006000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2" xr:uid="{00000000-0002-0000-1200-000007000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{00000000-0002-0000-1200-000008000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{00000000-0002-0000-1200-000009000000}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{00000000-0002-0000-1200-00000A000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2 AZ2:BA2 AQ2 AW2 AU2 AM2 AI2 AK2 AG2 AD2 AB2 AO2 Y2 BG2:BH2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2 AZ2:BA2 AQ2 AW2 AU2 AM2 AI2 AK2 AG2 AD2 AB2 AO2 Y2 BG2:BH2" xr:uid="{00000000-0002-0000-1200-00000B000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 L2" xr:uid="{00000000-0002-0000-1200-00000C000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-1200-00000D000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-1200-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{00000000-0002-0000-1200-00000F000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{00000000-0002-0000-1200-000010000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2" xr:uid="{00000000-0002-0000-1200-000011000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-1200-000012000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-1200-000013000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="Admin@123"/>
-    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J2" r:id="rId1" display="Admin@123" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25626,75 +25627,75 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,//xchangev12/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI6" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Car,Car+Flight,Car+Hotel,Car+Flight+Hotel,Car+Hotel+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ6" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW6" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD6" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC6 AY2:AZ6 AP2:AP6 AV2:AV6 AT2:AT6 AL2:AL6 AH2:AH6 AJ2:AJ6 AF2:AF6 AC2:AC6 AA2:AA6 AN2:AN6 X2:X6 BF2:BG6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC6 AY2:AZ6 AP2:AP6 AV2:AV6 AT2:AT6 AL2:AL6 AH2:AH6 AJ2:AJ6 AF2:AF6 AC2:AC6 AA2:AA6 AN2:AN6 X2:X6 BF2:BG6" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 AB2:AB6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 AB2:AB6" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0100-00000C000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ6" xr:uid="{00000000-0002-0000-0100-00000E000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX6" xr:uid="{00000000-0002-0000-0100-00000F000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6" xr:uid="{00000000-0002-0000-0100-000010000000}">
       <formula1>"Staging,Xchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6" xr:uid="{00000000-0002-0000-0100-000011000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0100-000013000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J4" r:id="rId4" display="Password@12345"/>
-    <hyperlink ref="K4" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J2" r:id="rId6" display="Password@12345"/>
-    <hyperlink ref="K2" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K5" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K3" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J2" r:id="rId6" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="K2" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -25702,7 +25703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
     <sheetView topLeftCell="BO1" workbookViewId="0">
@@ -26291,76 +26292,76 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{00000000-0002-0000-1300-000003000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-1300-000004000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{00000000-0002-0000-1300-000005000000}">
       <formula1>"Car,Car+Flight,Car+Hotel,Car+Flight+Hotel,Car+Hotel+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{00000000-0002-0000-1300-000006000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2" xr:uid="{00000000-0002-0000-1300-000007000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{00000000-0002-0000-1300-000008000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{00000000-0002-0000-1300-000009000000}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2" xr:uid="{00000000-0002-0000-1300-00000A000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2 AZ2:BA2 AQ2 AW2 AU2 AM2 AI2 AK2 AG2 AD2 AB2 AO2 Y2 BG2:BH2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2 AZ2:BA2 AQ2 AW2 AU2 AM2 AI2 AK2 AG2 AD2 AB2 AO2 Y2 BG2:BH2" xr:uid="{00000000-0002-0000-1300-00000B000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 L2" xr:uid="{00000000-0002-0000-1300-00000C000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-1300-00000D000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-1300-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{00000000-0002-0000-1300-00000F000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{00000000-0002-0000-1300-000010000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2" xr:uid="{00000000-0002-0000-1300-000011000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-1300-000012000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-1300-000013000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26372,7 +26373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:CD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27207,77 +27208,77 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2:BV3" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-1500-000001000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{00000000-0002-0000-1500-000002000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{00000000-0002-0000-1500-000003000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-1500-000004000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ3" xr:uid="{00000000-0002-0000-1500-000005000000}">
       <formula1>"Car,Car+Flight,Car+Hotel,Car+Flight+Hotel,Car+Hotel+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA3" xr:uid="{00000000-0002-0000-1500-000006000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2:CB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2:CB3" xr:uid="{00000000-0002-0000-1500-000007000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3" xr:uid="{00000000-0002-0000-1500-000008000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE3" xr:uid="{00000000-0002-0000-1500-000009000000}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB3" xr:uid="{00000000-0002-0000-1500-00000A000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD3 AZ2:BA3 AQ2:AQ3 AW2:AW3 AU2:AU3 AM2:AM3 AI2:AI3 AK2:AK3 AG2:AG3 AD2:AD3 AB2:AB3 AO2:AO3 Y2:Y3 BG2:BH3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD3 AZ2:BA3 AQ2:AQ3 AW2:AW3 AU2:AU3 AM2:AM3 AI2:AI3 AK2:AK3 AG2:AG3 AD2:AD3 AB2:AB3 AO2:AO3 Y2:Y3 BG2:BH3" xr:uid="{00000000-0002-0000-1500-00000B000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 L2:L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 L2:L3" xr:uid="{00000000-0002-0000-1500-00000C000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-1500-00000D000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-1500-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{00000000-0002-0000-1500-00000F000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3" xr:uid="{00000000-0002-0000-1500-000010000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 C2:C3" xr:uid="{00000000-0002-0000-1500-000011000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{00000000-0002-0000-1500-000012000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{00000000-0002-0000-1500-000013000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30012,105 +30013,105 @@
     </row>
   </sheetData>
   <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ11" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C2 C4 C6 C8 E10 E2 E4 E6 E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C2 C4 C6 C8 E10 E2 E4 E6 E8" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4 H6 H8 H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4 H6 H8 H10" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4 I6 I8 I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4 I6 I8 I10" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J4 J6 J8 J10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J4 J6 J8 J10" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 AB2:AB11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 AB2:AB11" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC11 AY2:AZ11 AP2:AP11 AV2:AV11 AT2:AT11 AL2:AL11 AH2:AH11 AJ2:AJ11 AF2:AF11 AC2:AC11 AA2:AA11 AN2:AN11 X2:X11 BF2:BG11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC11 AY2:AZ11 AP2:AP11 AV2:AV11 AT2:AT11 AL2:AL11 AH2:AH11 AJ2:AJ11 AF2:AF11 AC2:AC11 AA2:AA11 AN2:AN11 X2:X11 BF2:BG11" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA11" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD11" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW11" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ11" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY11" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2:BI11" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>"Car,Car+Flight,Car+Hotel,Car+Flight+Hotel,Car+Hotel+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K6 K8 K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K6 K8 K10" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H3 H5 H7 H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H3 H5 H7 H11" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,//xchangev12/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I3 I5 I7 I11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I3 I5 I7 I11" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9 J3 J5 J7 J11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9 J3 J5 J7 J11" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9 K3 K5 K7 K11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9 K3 K5 K7 K11" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0200-000015000000}">
       <formula1>"Staging,Xchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C5 C7 C9 C11 E3 E5 E7 E9 E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C5 C7 C9 C11 E3 E5 E7 E9 E11" xr:uid="{00000000-0002-0000-0200-000016000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="Password@12345"/>
-    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K4:K10" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J4" r:id="rId4" display="Password@12345"/>
-    <hyperlink ref="K4" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J6" r:id="rId6" display="Password@12345"/>
-    <hyperlink ref="K6" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J8" r:id="rId8" display="Password@12345"/>
-    <hyperlink ref="K8" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J10" r:id="rId10" display="Password@12345"/>
-    <hyperlink ref="K10" r:id="rId11" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J3" r:id="rId12" display="Password@12345"/>
-    <hyperlink ref="K3" r:id="rId13" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId14" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J5" r:id="rId15" display="Password@12345"/>
-    <hyperlink ref="K7" r:id="rId16" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J7" r:id="rId17" display="Password@12345"/>
-    <hyperlink ref="K9" r:id="rId18" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J9" r:id="rId19" display="Password@12345"/>
-    <hyperlink ref="J11" r:id="rId20" display="Password@12345"/>
-    <hyperlink ref="K11" r:id="rId21" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K4:K10" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="J4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="J6" r:id="rId6" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="K6" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="J8" r:id="rId8" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="K8" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="J10" r:id="rId10" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="K10" r:id="rId11" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="J3" r:id="rId12" display="Password@12345" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="K3" r:id="rId13" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="K5" r:id="rId14" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="J5" r:id="rId15" display="Password@12345" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K7" r:id="rId16" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="J7" r:id="rId17" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="K9" r:id="rId18" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="J9" r:id="rId19" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="J11" r:id="rId20" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="K11" r:id="rId21" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31427,88 +31428,88 @@
     </row>
   </sheetData>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Staging,Xchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL6" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 V2:V6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 V2:V6" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF6 U2:U6 W2:W6 AC2:AC6 Z2:Z6 AH2:AI6 AK2:AK6 AZ2:AZ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF6 U2:U6 W2:W6 AC2:AC6 Z2:Z6 AH2:AI6 AK2:AK6 AZ2:AZ6" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN6" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM6" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN6" xr:uid="{00000000-0002-0000-0300-00000A000000}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,//xchangev12/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{00000000-0002-0000-0300-00000D000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-0300-00000E000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 E2:E6" xr:uid="{00000000-0002-0000-0300-00000F000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{00000000-0002-0000-0300-000010000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ6" xr:uid="{00000000-0002-0000-0300-000011000000}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL6" xr:uid="{00000000-0002-0000-0300-000012000000}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY6" xr:uid="{00000000-0002-0000-0300-000013000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AX6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AX6" xr:uid="{00000000-0002-0000-0300-000014000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="Password@12345"/>
-    <hyperlink ref="K2" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3" display="Password@12345"/>
-    <hyperlink ref="K3" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5" display="Password@12345"/>
-    <hyperlink ref="K4" r:id="rId6"/>
-    <hyperlink ref="J5" r:id="rId7" display="Password@12345"/>
-    <hyperlink ref="K5" r:id="rId8"/>
-    <hyperlink ref="J6" r:id="rId9" display="Password@12345"/>
-    <hyperlink ref="K6" r:id="rId10"/>
+    <hyperlink ref="J2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" display="Password@12345" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" display="Password@12345" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" display="Password@12345" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" display="Password@12345" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BW25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -37270,114 +37271,114 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I25" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W25 AK2:AM25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W25 AK2:AM25" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA25 AG2:AG25 AJ2:AJ25 AN2:AN25 BL2:BL25 AT2:AT25 AP2:AR25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA25 AG2:AG25 AJ2:AJ25 AN2:AN25 BL2:BL25 AT2:AT25 AP2:AR25" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N25" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X25 AO2:AO25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X25 AO2:AO25" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L25" xr:uid="{00000000-0002-0000-0400-000007000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{00000000-0002-0000-0400-000008000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS25" xr:uid="{00000000-0002-0000-0400-00000A000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY25" xr:uid="{00000000-0002-0000-0400-00000B000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR25" xr:uid="{00000000-0002-0000-0400-00000C000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB25" xr:uid="{00000000-0002-0000-0400-00000D000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS25" xr:uid="{00000000-0002-0000-0400-00000E000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU25" xr:uid="{00000000-0002-0000-0400-00000F000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT25" xr:uid="{00000000-0002-0000-0400-000010000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ25" xr:uid="{00000000-0002-0000-0400-000011000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J25" xr:uid="{00000000-0002-0000-0400-000012000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K25" xr:uid="{00000000-0002-0000-0400-000013000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25 E2:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25 E2:E25" xr:uid="{00000000-0002-0000-0400-000014000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M25" xr:uid="{00000000-0002-0000-0400-000015000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO25" xr:uid="{00000000-0002-0000-0400-000016000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX25" xr:uid="{00000000-0002-0000-0400-000017000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV25" xr:uid="{00000000-0002-0000-0400-000018000000}">
       <formula1>"Jetstar Airways,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K8" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K7" r:id="rId7" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K9" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K11" r:id="rId9" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K13" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K14:K22" r:id="rId11" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K16" r:id="rId12" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K20" r:id="rId13" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K24" r:id="rId14" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K15" r:id="rId15" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K17" r:id="rId16" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K19" r:id="rId17" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K21" r:id="rId18" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K23" r:id="rId19" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K25" r:id="rId20" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K10" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="K8" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="K12" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="K3" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="K5" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="K7" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="K11" r:id="rId9" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="K13" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="K14:K22" r:id="rId11" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="K16" r:id="rId12" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="K20" r:id="rId13" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="K24" r:id="rId14" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="K15" r:id="rId15" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="K19" r:id="rId17" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="K21" r:id="rId18" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="K23" r:id="rId19" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="K25" r:id="rId20" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38822,96 +38823,96 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Jetstar Airways,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX6" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO6" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6 C2:C6" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ6" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT6" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU6" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS6" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB6" xr:uid="{00000000-0002-0000-0500-00000A000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR6" xr:uid="{00000000-0002-0000-0500-00000B000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY6" xr:uid="{00000000-0002-0000-0500-00000C000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS6" xr:uid="{00000000-0002-0000-0500-00000D000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0500-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0500-00000F000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{00000000-0002-0000-0500-000010000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6 X2:X6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO6 X2:X6" xr:uid="{00000000-0002-0000-0500-000011000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{00000000-0002-0000-0500-000012000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG6 AJ2:AJ6 AN2:AN6 BL2:BL6 AT2:AT6 AP2:AR6 Y2:AA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG6 AJ2:AJ6 AN2:AN6 BL2:BL6 AT2:AT6 AP2:AR6 Y2:AA6" xr:uid="{00000000-0002-0000-0500-000013000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AM6 U2:W6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AM6 U2:W6" xr:uid="{00000000-0002-0000-0500-000014000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0500-000015000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{00000000-0002-0000-0500-000016000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{00000000-0002-0000-0500-000017000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{00000000-0002-0000-0500-000018000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Quad@720"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2:K5" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K5" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K2" r:id="rId5" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K6" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2:K5" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="K3" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="K2" r:id="rId5" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="K6" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39452,91 +39453,91 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AM2 U2:W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AM2 U2:W2" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AJ2 AN2 BL2 AT2 AP2:AR2 Y2:AA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AJ2 AN2 BL2 AT2 AP2:AR2 Y2:AA2" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2 X2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2 X2" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0600-000008000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0600-000009000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{00000000-0002-0000-0600-00000A000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2" xr:uid="{00000000-0002-0000-0600-00000B000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{00000000-0002-0000-0600-00000C000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{00000000-0002-0000-0600-00000D000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2" xr:uid="{00000000-0002-0000-0600-00000E000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{00000000-0002-0000-0600-00000F000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2" xr:uid="{00000000-0002-0000-0600-000010000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{00000000-0002-0000-0600-000011000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0600-000012000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Quad@720"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{00000000-0002-0000-0600-000013000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2" xr:uid="{00000000-0002-0000-0600-000014000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-0600-000015000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{00000000-0002-0000-0600-000016000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX2" xr:uid="{00000000-0002-0000-0600-000017000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV2" xr:uid="{00000000-0002-0000-0600-000018000000}">
       <formula1>"Jetstar Airways,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40304,94 +40305,94 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W3 AK2:AM3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W3 AK2:AM3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA3 AG2:AG3 AJ2:AJ3 AN2:AN3 BL2:BL3 AT2:AT3 AP2:AR3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA3 AG2:AG3 AJ2:AJ3 AN2:AN3 BL2:BL3 AT2:AT3 AP2:AR3" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AO2:AO3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3 AO2:AO3" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS3" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY3" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR3" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS3" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT3" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 E2:E3" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{00000000-0002-0000-0700-000010000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO3" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV3" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"Jetstar Airways,Regional Express,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX3" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS,BUSINESS SAVER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{00000000-0002-0000-0700-000014000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,sitesh.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{00000000-0002-0000-0700-000015000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{00000000-0002-0000-0700-000016000000}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0700-000017000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0700-000018000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K2" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J3" r:id="rId4" display="Admin@123"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" display="Admin@123" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42067,96 +42068,96 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Staging,Xchange,tpstg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AX7" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Economy,Economy Starter Plus Public,Economy Starter Max,CHOICE,FLEX,BUSINESS,RED EDEAL,ECONOMY FLEX,FLEXIBLE BUSINESS,BUSINESS SAVER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AV7" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"Jetstar Airways,Regional Express,Virgin Australia,Qantas Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO7" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 E2:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 E2:E7" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Anant Maurya,Sarfaraz Ahmad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ7" xr:uid="{00000000-0002-0000-0800-000006000000}">
       <formula1>"Flight,Flight+Hotel,Flight+Car,Flight+Hotel+Car,Flight+Car+Hotel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT7" xr:uid="{00000000-0002-0000-0800-000007000000}">
       <formula1>"Mastercard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU7" xr:uid="{00000000-0002-0000-0800-000008000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2:BS7" xr:uid="{00000000-0002-0000-0800-000009000000}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB7" xr:uid="{00000000-0002-0000-0800-00000A000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR7" xr:uid="{00000000-0002-0000-0800-00000B000000}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY7" xr:uid="{00000000-0002-0000-0800-00000C000000}">
       <formula1>"Add to Cart,Book"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS7" xr:uid="{00000000-0002-0000-0800-00000D000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{00000000-0002-0000-0800-00000E000000}">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{00000000-0002-0000-0800-00000F000000}">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{00000000-0002-0000-0800-000010000000}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X7 AO2:AO7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X7 AO2:AO7" xr:uid="{00000000-0002-0000-0800-000011000000}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7" xr:uid="{00000000-0002-0000-0800-000012000000}">
       <formula1>"OneWay,RoundTrip,Multicity,DirectBooking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA7 AG2:AG7 AJ2:AJ7 AN2:AN7 BL2:BL7 AT2:AT7 AP2:AR7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AA7 AG2:AG7 AJ2:AJ7 AN2:AN7 BL2:BL7 AT2:AT7 AP2:AR7" xr:uid="{00000000-0002-0000-0800-000013000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W7 AK2:AM7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W7 AK2:AM7" xr:uid="{00000000-0002-0000-0800-000014000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{00000000-0002-0000-0800-000015000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234,Admin@123,Admin@1234,ROBOBGH92FAUGAN,3980SATX2V2GNJF,Quad@720,Laxmi@10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{00000000-0002-0000-0800-000016000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince,Sarfaraz,Sitesh,Lux,ShubhamNatkar,Laxmi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{00000000-0002-0000-0800-000017000000}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,anant.Kumar@Quadlabs.com,shubham.natkar@quadlabs.com,hemant.singh@quadlabs.com,sarfaraz.ahmad@quadlabs.com,piyush.chauhan@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{00000000-0002-0000-0800-000018000000}">
       <formula1>"//staging117/sbt,//xchangev12/sbt/,//tpstg.quadlabs.net/sbt/"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="K3:K6" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="K3" r:id="rId4" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J3" r:id="rId5" display="Admin@123"/>
-    <hyperlink ref="K4" r:id="rId6" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J4" r:id="rId7" display="Admin@123"/>
-    <hyperlink ref="K5" r:id="rId8" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J5" r:id="rId9" display="Admin@123"/>
-    <hyperlink ref="K6" r:id="rId10" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J6" r:id="rId11" display="Admin@123"/>
-    <hyperlink ref="K7" r:id="rId12" display="prince.chaurasia@quadlabs.com"/>
-    <hyperlink ref="J7" r:id="rId13" display="Admin@123"/>
+    <hyperlink ref="K2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="K3:K6" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="J3" r:id="rId5" display="Admin@123" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="J4" r:id="rId7" display="Admin@123" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="J5" r:id="rId9" display="Admin@123" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="J6" r:id="rId11" display="Admin@123" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="K7" r:id="rId12" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="J7" r:id="rId13" display="Admin@123" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/JOLO_SBT_Flight_Hotel_Car.xlsx
+++ b/data/excel/JOLO_SBT_Flight_Hotel_Car.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E414FA2-59EC-4A98-BCEA-9D316D7A1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA40A96-3F00-4F78-A9D9-90BE3D003A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37377,8 +37377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BW6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BF19" sqref="BF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
